--- a/data/jobs_employees.xlsx
+++ b/data/jobs_employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinfrederickson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C315E6B-9A04-9640-B9DA-59493243BD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A479A9-059C-B84C-8E27-6ED74FD2B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1740" windowWidth="31940" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="2580" windowWidth="31940" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>
@@ -7646,7 +7646,7 @@
   </sheetPr>
   <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -10126,8 +10126,8 @@
   </sheetPr>
   <dimension ref="A1:M454"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="2" t="s">
-        <v>335</v>
+        <v>2431</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>335</v>
@@ -10231,7 +10231,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="2" t="s">
-        <v>335</v>
+        <v>2431</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>335</v>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>2390</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>16</v>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>2392</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>21</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>2391</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>23</v>
+        <v>2393</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>23</v>
@@ -10849,7 +10849,7 @@
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="2" t="s">
-        <v>65</v>
+        <v>2395</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>65</v>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
-        <v>99</v>
+        <v>2401</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>99</v>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="2" t="s">
-        <v>99</v>
+        <v>2401</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>99</v>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="2" t="s">
-        <v>102</v>
+        <v>2402</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>102</v>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="2" t="s">
-        <v>104</v>
+        <v>2403</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>104</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="2" t="s">
-        <v>102</v>
+        <v>2402</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>102</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="2" t="s">
-        <v>111</v>
+        <v>2404</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>111</v>
@@ -11512,7 +11512,7 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="2" t="s">
-        <v>111</v>
+        <v>2404</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>111</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="2" t="s">
-        <v>113</v>
+        <v>2405</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>113</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="2" t="s">
-        <v>116</v>
+        <v>2406</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>116</v>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="2" t="s">
-        <v>142</v>
+        <v>2411</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>142</v>
@@ -11707,7 +11707,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="2" t="s">
-        <v>140</v>
+        <v>2410</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>140</v>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="2" t="s">
-        <v>165</v>
+        <v>2413</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>165</v>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="2" t="s">
-        <v>168</v>
+        <v>2414</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>168</v>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="2" t="s">
-        <v>168</v>
+        <v>2414</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>571</v>
@@ -11902,7 +11902,7 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="2" t="s">
-        <v>168</v>
+        <v>2414</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>168</v>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="2" t="s">
-        <v>89</v>
+        <v>2399</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>89</v>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="2" t="s">
-        <v>170</v>
+        <v>2415</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>170</v>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="2" t="s">
-        <v>67</v>
+        <v>2396</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>67</v>
@@ -13033,7 +13033,7 @@
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="2" t="s">
-        <v>91</v>
+        <v>2400</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>91</v>
@@ -13111,7 +13111,7 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="2" t="s">
-        <v>174</v>
+        <v>2416</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>174</v>
@@ -13150,7 +13150,7 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>177</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>177</v>
@@ -13228,7 +13228,7 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>177</v>
@@ -13267,7 +13267,7 @@
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>177</v>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="2" t="s">
-        <v>68</v>
+        <v>2397</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>68</v>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="2" t="s">
-        <v>185</v>
+        <v>2419</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>185</v>
@@ -13423,7 +13423,7 @@
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="2" t="s">
-        <v>149</v>
+        <v>2412</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>149</v>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="2" t="s">
-        <v>195</v>
+        <v>2422</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>195</v>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="2" t="s">
-        <v>188</v>
+        <v>2421</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>188</v>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="2" t="s">
-        <v>119</v>
+        <v>2407</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>119</v>
@@ -13774,7 +13774,7 @@
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="2" t="s">
-        <v>121</v>
+        <v>2408</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>121</v>
@@ -13813,7 +13813,7 @@
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="2" t="s">
-        <v>197</v>
+        <v>2423</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>197</v>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I111" s="4" t="s">
         <v>267</v>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>267</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>267</v>
@@ -14632,7 +14632,7 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>267</v>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I123" s="4" t="s">
         <v>267</v>
@@ -15412,7 +15412,7 @@
       </c>
       <c r="G136" s="5"/>
       <c r="H136" s="2" t="s">
-        <v>39</v>
+        <v>2394</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>39</v>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>177</v>
@@ -16114,7 +16114,7 @@
       </c>
       <c r="G154" s="5"/>
       <c r="H154" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>267</v>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="2" t="s">
-        <v>199</v>
+        <v>2424</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>199</v>
@@ -16192,7 +16192,7 @@
       </c>
       <c r="G156" s="5"/>
       <c r="H156" s="2" t="s">
-        <v>123</v>
+        <v>2409</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>123</v>
@@ -16231,7 +16231,7 @@
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="2" t="s">
-        <v>142</v>
+        <v>2411</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>142</v>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="G161" s="5"/>
       <c r="H161" s="2" t="s">
-        <v>142</v>
+        <v>2411</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>142</v>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="2" t="s">
-        <v>142</v>
+        <v>2411</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>142</v>
@@ -16504,7 +16504,7 @@
       </c>
       <c r="G164" s="5"/>
       <c r="H164" s="2" t="s">
-        <v>216</v>
+        <v>2425</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>216</v>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="2" t="s">
-        <v>216</v>
+        <v>2425</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>216</v>
@@ -17167,7 +17167,7 @@
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="2" t="s">
-        <v>230</v>
+        <v>2427</v>
       </c>
       <c r="I181" s="4" t="s">
         <v>230</v>
@@ -17206,7 +17206,7 @@
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="2" t="s">
-        <v>227</v>
+        <v>2426</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>227</v>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="G183" s="5"/>
       <c r="H183" s="2" t="s">
-        <v>227</v>
+        <v>2426</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>227</v>
@@ -17284,7 +17284,7 @@
       </c>
       <c r="G184" s="5"/>
       <c r="H184" s="2" t="s">
-        <v>227</v>
+        <v>2426</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>227</v>
@@ -17323,7 +17323,7 @@
       </c>
       <c r="G185" s="5"/>
       <c r="H185" s="2" t="s">
-        <v>227</v>
+        <v>2426</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>227</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I199" s="4" t="s">
         <v>267</v>
@@ -18226,7 +18226,7 @@
       </c>
       <c r="G208" s="5"/>
       <c r="H208" s="2" t="s">
-        <v>19</v>
+        <v>2391</v>
       </c>
       <c r="I208" s="4" t="s">
         <v>19</v>
@@ -19010,7 +19010,7 @@
       </c>
       <c r="G228" s="5"/>
       <c r="H228" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I228" s="4" t="s">
         <v>267</v>
@@ -19049,7 +19049,7 @@
       </c>
       <c r="G229" s="5"/>
       <c r="H229" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I229" s="4" t="s">
         <v>267</v>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="G230" s="5"/>
       <c r="H230" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I230" s="4" t="s">
         <v>267</v>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="G231" s="5"/>
       <c r="H231" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I231" s="4" t="s">
         <v>267</v>
@@ -19556,7 +19556,7 @@
       </c>
       <c r="G242" s="5"/>
       <c r="H242" s="2" t="s">
-        <v>123</v>
+        <v>2409</v>
       </c>
       <c r="I242" s="4" t="s">
         <v>123</v>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="G245" s="5"/>
       <c r="H245" s="2" t="s">
-        <v>180</v>
+        <v>2418</v>
       </c>
       <c r="I245" s="4" t="s">
         <v>180</v>
@@ -19751,7 +19751,7 @@
       </c>
       <c r="G247" s="5"/>
       <c r="H247" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I247" s="4" t="s">
         <v>267</v>
@@ -19829,7 +19829,7 @@
       </c>
       <c r="G249" s="5"/>
       <c r="H249" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I249" s="4" t="s">
         <v>267</v>
@@ -19985,7 +19985,7 @@
       </c>
       <c r="G253" s="5"/>
       <c r="H253" s="2" t="s">
-        <v>174</v>
+        <v>2416</v>
       </c>
       <c r="I253" s="4" t="s">
         <v>174</v>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="G257" s="5"/>
       <c r="H257" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I257" s="4" t="s">
         <v>267</v>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="G266" s="5"/>
       <c r="H266" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I266" s="4" t="s">
         <v>267</v>
@@ -20531,7 +20531,7 @@
       </c>
       <c r="G267" s="5"/>
       <c r="H267" s="2" t="s">
-        <v>216</v>
+        <v>2425</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>216</v>
@@ -21194,7 +21194,7 @@
       </c>
       <c r="G284" s="5"/>
       <c r="H284" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I284" s="4" t="s">
         <v>267</v>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="G297" s="5"/>
       <c r="H297" s="2" t="s">
-        <v>287</v>
+        <v>2429</v>
       </c>
       <c r="I297" s="4" t="s">
         <v>287</v>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="G302" s="5"/>
       <c r="H302" s="2" t="s">
-        <v>19</v>
+        <v>2391</v>
       </c>
       <c r="I302" s="4" t="s">
         <v>19</v>
@@ -23144,7 +23144,7 @@
       </c>
       <c r="G336" s="5"/>
       <c r="H336" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I336" s="4" t="s">
         <v>267</v>
@@ -23481,7 +23481,7 @@
       </c>
       <c r="G345" s="5"/>
       <c r="H345" s="2" t="s">
-        <v>216</v>
+        <v>2425</v>
       </c>
       <c r="I345" s="4" t="s">
         <v>216</v>
@@ -24591,7 +24591,7 @@
       </c>
       <c r="G375" s="5"/>
       <c r="H375" s="2" t="s">
-        <v>19</v>
+        <v>2391</v>
       </c>
       <c r="I375" s="4" t="s">
         <v>19</v>
@@ -25738,7 +25738,7 @@
       </c>
       <c r="G406" s="5"/>
       <c r="H406" s="2" t="s">
-        <v>142</v>
+        <v>2411</v>
       </c>
       <c r="I406" s="4" t="s">
         <v>142</v>
@@ -25997,7 +25997,7 @@
       </c>
       <c r="G413" s="5"/>
       <c r="H413" s="2" t="s">
-        <v>177</v>
+        <v>2417</v>
       </c>
       <c r="I413" s="4" t="s">
         <v>177</v>
@@ -26034,7 +26034,7 @@
       </c>
       <c r="G414" s="5"/>
       <c r="H414" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I414" s="4" t="s">
         <v>267</v>
@@ -26293,7 +26293,7 @@
       </c>
       <c r="G421" s="5"/>
       <c r="H421" s="2" t="s">
-        <v>267</v>
+        <v>2428</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>267</v>
@@ -26552,7 +26552,7 @@
       </c>
       <c r="G428" s="5"/>
       <c r="H428" s="2" t="s">
-        <v>199</v>
+        <v>2424</v>
       </c>
       <c r="I428" s="4" t="s">
         <v>199</v>

--- a/data/jobs_employees.xlsx
+++ b/data/jobs_employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colinfrederickson/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A479A9-059C-B84C-8E27-6ED74FD2B3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691EE51-D7BC-B44C-8AF8-7DD2B8A42789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2580" windowWidth="31940" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="2580" windowWidth="31940" windowHeight="18600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jobs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4423" uniqueCount="2433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4422" uniqueCount="2433">
   <si>
     <t>jobName</t>
   </si>
@@ -7398,7 +7398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7426,6 +7426,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10127,7 +10130,7 @@
   <dimension ref="A1:M454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10250,8 +10253,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>373</v>
+      <c r="A4" s="13">
+        <v>19001</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>373</v>
